--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -450,10 +450,10 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="2">
       <c r="B1" s="3" t="inlineStr">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>448</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>92</v>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>172.36</v>
+        <v>52.35999999999999</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="2">

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -450,10 +450,10 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="2">
       <c r="B1" s="3" t="inlineStr">
@@ -516,6 +516,11 @@
       <c r="G2" s="3" t="n">
         <v>40.39</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="2">
       <c r="A3" s="3" t="n">
@@ -541,6 +546,11 @@
       <c r="G3" s="3" t="n">
         <v>53.02</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -566,6 +576,11 @@
       <c r="G4" s="3" t="n">
         <v>34.74</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="2">
       <c r="A5" s="3" t="n">
@@ -591,6 +606,11 @@
       <c r="G5" s="3" t="n">
         <v>82.38</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -616,6 +636,11 @@
       <c r="G6" s="3" t="n">
         <v>45</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="2">
       <c r="A7" s="3" t="n">
@@ -641,6 +666,11 @@
       <c r="G7" s="3" t="n">
         <v>33.02</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -666,6 +696,11 @@
       <c r="G8" s="3" t="n">
         <v>58.51000000000001</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="2">
       <c r="A9" s="3" t="n">
@@ -691,6 +726,11 @@
       <c r="G9" s="3" t="n">
         <v>54.64</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -716,6 +756,11 @@
       <c r="G10" s="3" t="n">
         <v>52.35999999999999</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="2">
       <c r="A11" s="3" t="n">
@@ -740,6 +785,11 @@
       </c>
       <c r="G11" s="3" t="n">
         <v>63.96000000000001</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -453,7 +453,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="2">
       <c r="B1" s="3" t="inlineStr">

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -449,11 +449,11 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.78515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="2">
       <c r="B1" s="3" t="inlineStr">
@@ -516,7 +516,7 @@
       <c r="G2" s="3" t="n">
         <v>40.39</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C+</t>
         </is>
@@ -546,7 +546,7 @@
       <c r="G3" s="3" t="n">
         <v>53.02</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
@@ -576,7 +576,7 @@
       <c r="G4" s="3" t="n">
         <v>34.74</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -606,7 +606,7 @@
       <c r="G5" s="3" t="n">
         <v>82.38</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
@@ -636,7 +636,7 @@
       <c r="G6" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
@@ -666,7 +666,7 @@
       <c r="G7" s="3" t="n">
         <v>33.02</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
@@ -696,7 +696,7 @@
       <c r="G8" s="3" t="n">
         <v>58.51000000000001</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>A0</t>
         </is>
@@ -726,7 +726,7 @@
       <c r="G9" s="3" t="n">
         <v>54.64</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
@@ -756,7 +756,7 @@
       <c r="G10" s="3" t="n">
         <v>52.35999999999999</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
@@ -786,7 +786,7 @@
       <c r="G11" s="3" t="n">
         <v>63.96000000000001</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>A0</t>
         </is>
